--- a/progress.xlsx
+++ b/progress.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="61" documentId="11_AD4DC2C4214B839BC62F9CB3F68F3ED46AE8DE2A" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{EDDA4EAE-08C4-496E-B68F-5A1D16C4D5C3}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="11_AD4DC2C4214B839BC62F9CB3F68F3ED46AE8DE2A" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{2074F9A5-2CEF-4C5D-8A5A-9280643493BE}"/>
   <bookViews>
-    <workbookView xWindow="-18165" yWindow="1725" windowWidth="15030" windowHeight="15105" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18165" yWindow="1725" windowWidth="15030" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -584,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97525C2-1549-442D-942D-7A8F3B05575B}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,6 +1633,159 @@
       </c>
       <c r="B64">
         <v>1</v>
+      </c>
+      <c r="C64">
+        <v>600</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>190326</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>400</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>190327</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>400</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>190328</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>190329</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>190330</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>190331</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>190401</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>300</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>190402</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>500</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>190403</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>1200</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1708,7 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_AD4DC2C4214B839BC62F9CB3F68F3ED46AE8DE2A" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{2074F9A5-2CEF-4C5D-8A5A-9280643493BE}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="5_{92978809-104D-4B05-913D-56499CE13AE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{3600D691-1FD0-4BC3-8F51-515029D84946}"/>
   <bookViews>
     <workbookView xWindow="-18165" yWindow="1725" windowWidth="15030" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -193,13 +193,60 @@
   </si>
   <si>
     <t>update</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>IRC</t>
+  </si>
+  <si>
+    <t>meaning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>research</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIP-CARD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HKCSS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>research</t>
+  </si>
+  <si>
+    <t>TIP-CARD</t>
+  </si>
+  <si>
+    <t>content analysis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +260,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -584,15 +638,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97525C2-1549-442D-942D-7A8F3B05575B}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -603,13 +657,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>190130</v>
       </c>
@@ -620,13 +677,16 @@
         <v>222</v>
       </c>
       <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>190131</v>
       </c>
@@ -637,13 +697,16 @@
         <v>600</v>
       </c>
       <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>190201</v>
       </c>
@@ -654,13 +717,16 @@
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>190202</v>
       </c>
@@ -670,11 +736,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>190203</v>
       </c>
@@ -684,11 +750,11 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>190204</v>
       </c>
@@ -698,11 +764,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>190205</v>
       </c>
@@ -713,13 +779,16 @@
         <v>300</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>190206</v>
       </c>
@@ -730,13 +799,16 @@
         <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>190207</v>
       </c>
@@ -746,11 +818,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>190208</v>
       </c>
@@ -761,13 +833,16 @@
         <v>300</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>190209</v>
       </c>
@@ -777,11 +852,11 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>190210</v>
       </c>
@@ -792,13 +867,16 @@
         <v>200</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>190211</v>
       </c>
@@ -809,13 +887,16 @@
         <v>500</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>190212</v>
       </c>
@@ -826,13 +907,16 @@
         <v>250</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>190213</v>
       </c>
@@ -843,13 +927,16 @@
         <v>200</v>
       </c>
       <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
         <v>9</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>190213</v>
       </c>
@@ -860,13 +947,16 @@
         <v>400</v>
       </c>
       <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>190214</v>
       </c>
@@ -877,13 +967,16 @@
         <v>300</v>
       </c>
       <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>190214</v>
       </c>
@@ -894,13 +987,16 @@
         <v>300</v>
       </c>
       <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
         <v>11</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>190214</v>
       </c>
@@ -911,13 +1007,16 @@
         <v>200</v>
       </c>
       <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>190215</v>
       </c>
@@ -928,13 +1027,16 @@
         <v>100</v>
       </c>
       <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>190216</v>
       </c>
@@ -945,13 +1047,16 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>190217</v>
       </c>
@@ -962,13 +1067,16 @@
         <v>200</v>
       </c>
       <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>190218</v>
       </c>
@@ -979,13 +1087,16 @@
         <v>100</v>
       </c>
       <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
         <v>10</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>190219</v>
       </c>
@@ -996,13 +1107,16 @@
         <v>600</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>190220</v>
       </c>
@@ -1013,13 +1127,16 @@
         <v>500</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>190221</v>
       </c>
@@ -1030,13 +1147,16 @@
         <v>1200</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27">
+        <v>63</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>190222</v>
       </c>
@@ -1047,13 +1167,16 @@
         <v>500</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>190223</v>
       </c>
@@ -1064,13 +1187,16 @@
         <v>400</v>
       </c>
       <c r="D29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" t="s">
         <v>10</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>190224</v>
       </c>
@@ -1080,11 +1206,11 @@
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>190225</v>
       </c>
@@ -1095,13 +1221,16 @@
         <v>200</v>
       </c>
       <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
         <v>10</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>190226</v>
       </c>
@@ -1112,13 +1241,16 @@
         <v>600</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32">
+        <v>63</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>190227</v>
       </c>
@@ -1129,13 +1261,16 @@
         <v>300</v>
       </c>
       <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>190227</v>
       </c>
@@ -1146,13 +1281,16 @@
         <v>400</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34">
+        <v>63</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>190228</v>
       </c>
@@ -1163,13 +1301,16 @@
         <v>800</v>
       </c>
       <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" t="s">
         <v>12</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>190301</v>
       </c>
@@ -1180,13 +1321,16 @@
         <v>800</v>
       </c>
       <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
         <v>12</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>190301</v>
       </c>
@@ -1197,13 +1341,16 @@
         <v>600</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37">
+        <v>63</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>190302</v>
       </c>
@@ -1214,13 +1361,16 @@
         <v>300</v>
       </c>
       <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" t="s">
         <v>12</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>190303</v>
       </c>
@@ -1231,13 +1381,16 @@
         <v>400</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>190303</v>
       </c>
@@ -1248,13 +1401,16 @@
         <v>600</v>
       </c>
       <c r="D40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" t="s">
         <v>10</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>190304</v>
       </c>
@@ -1264,11 +1420,11 @@
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>190305</v>
       </c>
@@ -1278,11 +1434,11 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>190306</v>
       </c>
@@ -1292,11 +1448,11 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>190307</v>
       </c>
@@ -1306,11 +1462,11 @@
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>190308</v>
       </c>
@@ -1321,13 +1477,16 @@
         <v>1000</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45">
+        <v>63</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>190309</v>
       </c>
@@ -1338,13 +1497,16 @@
         <v>1200</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46">
+        <v>63</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>190310</v>
       </c>
@@ -1355,13 +1517,16 @@
         <v>400</v>
       </c>
       <c r="D47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" t="s">
         <v>13</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>190311</v>
       </c>
@@ -1371,11 +1536,11 @@
       <c r="C48">
         <v>0</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>190312</v>
       </c>
@@ -1386,13 +1551,16 @@
         <v>600</v>
       </c>
       <c r="D49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" t="s">
         <v>14</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>190313</v>
       </c>
@@ -1403,13 +1571,16 @@
         <v>600</v>
       </c>
       <c r="D50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" t="s">
         <v>14</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>190313</v>
       </c>
@@ -1420,13 +1591,16 @@
         <v>800</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51">
+        <v>63</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>190314</v>
       </c>
@@ -1437,13 +1611,16 @@
         <v>600</v>
       </c>
       <c r="D52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" t="s">
         <v>13</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>190315</v>
       </c>
@@ -1454,13 +1631,16 @@
         <v>100</v>
       </c>
       <c r="D53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" t="s">
         <v>13</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>190316</v>
       </c>
@@ -1471,13 +1651,16 @@
         <v>800</v>
       </c>
       <c r="D54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" t="s">
         <v>13</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>190317</v>
       </c>
@@ -1487,11 +1670,11 @@
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>190318</v>
       </c>
@@ -1502,13 +1685,16 @@
         <v>200</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56">
+        <v>63</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>190319</v>
       </c>
@@ -1521,11 +1707,14 @@
       <c r="D57" t="s">
         <v>12</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>190320</v>
       </c>
@@ -1536,13 +1725,16 @@
         <v>1500</v>
       </c>
       <c r="D58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" t="s">
         <v>15</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>190320</v>
       </c>
@@ -1555,11 +1747,14 @@
       <c r="D59" t="s">
         <v>12</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>190321</v>
       </c>
@@ -1570,13 +1765,16 @@
         <v>2000</v>
       </c>
       <c r="D60" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" t="s">
         <v>11</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>190322</v>
       </c>
@@ -1587,13 +1785,16 @@
         <v>1000</v>
       </c>
       <c r="D61" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" t="s">
         <v>13</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>190323</v>
       </c>
@@ -1604,13 +1805,16 @@
         <v>200</v>
       </c>
       <c r="D62" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" t="s">
         <v>13</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>190324</v>
       </c>
@@ -1621,13 +1825,16 @@
         <v>200</v>
       </c>
       <c r="D63" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
         <v>13</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>190325</v>
       </c>
@@ -1638,13 +1845,16 @@
         <v>600</v>
       </c>
       <c r="D64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64" t="s">
         <v>13</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>190326</v>
       </c>
@@ -1655,13 +1865,16 @@
         <v>400</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65">
+        <v>63</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>190327</v>
       </c>
@@ -1672,13 +1885,16 @@
         <v>400</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66">
+        <v>63</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>190328</v>
       </c>
@@ -1689,13 +1905,16 @@
         <v>100</v>
       </c>
       <c r="D67" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" t="s">
         <v>15</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>190329</v>
       </c>
@@ -1705,11 +1924,11 @@
       <c r="C68">
         <v>0</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>190330</v>
       </c>
@@ -1719,11 +1938,11 @@
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>190331</v>
       </c>
@@ -1733,11 +1952,11 @@
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>190401</v>
       </c>
@@ -1748,13 +1967,16 @@
         <v>300</v>
       </c>
       <c r="D71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" t="s">
         <v>15</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>190402</v>
       </c>
@@ -1765,13 +1987,16 @@
         <v>500</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72">
+        <v>63</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72">
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>190403</v>
       </c>
@@ -1782,14 +2007,862 @@
         <v>1200</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73">
+        <v>63</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73">
         <v>80</v>
       </c>
     </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>190404</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>100</v>
+      </c>
+      <c r="D74" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>190405</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>400</v>
+      </c>
+      <c r="D75" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>190406</v>
+      </c>
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>600</v>
+      </c>
+      <c r="D76" t="s">
+        <v>62</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>190407</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77">
+        <v>200</v>
+      </c>
+      <c r="D77" t="s">
+        <v>62</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>190408</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>300</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>190409</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>400</v>
+      </c>
+      <c r="D79" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>190410</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>200</v>
+      </c>
+      <c r="D80" t="s">
+        <v>57</v>
+      </c>
+      <c r="E80" t="s">
+        <v>57</v>
+      </c>
+      <c r="F80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>190411</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>1000</v>
+      </c>
+      <c r="D81" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>190412</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>1000</v>
+      </c>
+      <c r="D82" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>190412</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>1000</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>190413</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>190414</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>500</v>
+      </c>
+      <c r="D85" t="s">
+        <v>63</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>190414</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>600</v>
+      </c>
+      <c r="D86" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86" t="s">
+        <v>58</v>
+      </c>
+      <c r="F86">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>190415</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1200</v>
+      </c>
+      <c r="D87" t="s">
+        <v>63</v>
+      </c>
+      <c r="E87" t="s">
+        <v>59</v>
+      </c>
+      <c r="F87">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>190416</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>800</v>
+      </c>
+      <c r="D88" t="s">
+        <v>57</v>
+      </c>
+      <c r="E88" t="s">
+        <v>60</v>
+      </c>
+      <c r="F88">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>190417</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>400</v>
+      </c>
+      <c r="D89" t="s">
+        <v>57</v>
+      </c>
+      <c r="E89" t="s">
+        <v>60</v>
+      </c>
+      <c r="F89">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>190418</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>600</v>
+      </c>
+      <c r="D90" t="s">
+        <v>57</v>
+      </c>
+      <c r="E90" t="s">
+        <v>60</v>
+      </c>
+      <c r="F90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>190419</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>190420</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>190421</v>
+      </c>
+      <c r="B93">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>300</v>
+      </c>
+      <c r="D93" t="s">
+        <v>63</v>
+      </c>
+      <c r="E93" t="s">
+        <v>59</v>
+      </c>
+      <c r="F93">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>190422</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>200</v>
+      </c>
+      <c r="D94" t="s">
+        <v>63</v>
+      </c>
+      <c r="E94" t="s">
+        <v>59</v>
+      </c>
+      <c r="F94">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>190423</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>800</v>
+      </c>
+      <c r="D95" t="s">
+        <v>63</v>
+      </c>
+      <c r="E95" t="s">
+        <v>59</v>
+      </c>
+      <c r="F95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>190424</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>190425</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>300</v>
+      </c>
+      <c r="D97" t="s">
+        <v>63</v>
+      </c>
+      <c r="E97" t="s">
+        <v>65</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>190426</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>600</v>
+      </c>
+      <c r="D98" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98" t="s">
+        <v>59</v>
+      </c>
+      <c r="F98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>190427</v>
+      </c>
+      <c r="B99">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>190428</v>
+      </c>
+      <c r="B100">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>200</v>
+      </c>
+      <c r="D100" t="s">
+        <v>63</v>
+      </c>
+      <c r="E100" t="s">
+        <v>66</v>
+      </c>
+      <c r="F100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>190429</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>190430</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>190501</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>400</v>
+      </c>
+      <c r="D103" t="s">
+        <v>67</v>
+      </c>
+      <c r="E103" t="s">
+        <v>68</v>
+      </c>
+      <c r="F103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>190502</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>300</v>
+      </c>
+      <c r="D104" t="s">
+        <v>67</v>
+      </c>
+      <c r="E104" t="s">
+        <v>68</v>
+      </c>
+      <c r="F104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>190503</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>190504</v>
+      </c>
+      <c r="B106">
+        <v>6</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>190505</v>
+      </c>
+      <c r="B107">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>300</v>
+      </c>
+      <c r="D107" t="s">
+        <v>67</v>
+      </c>
+      <c r="E107" t="s">
+        <v>68</v>
+      </c>
+      <c r="F107">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>190505</v>
+      </c>
+      <c r="B108">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>400</v>
+      </c>
+      <c r="D108" t="s">
+        <v>67</v>
+      </c>
+      <c r="E108" t="s">
+        <v>69</v>
+      </c>
+      <c r="F108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>190506</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>190507</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>190508</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>190509</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>190510</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>190511</v>
+      </c>
+      <c r="B114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>190512</v>
+      </c>
+      <c r="B115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>190513</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>190514</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>190515</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>190516</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>190517</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>190518</v>
+      </c>
+      <c r="B121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>190519</v>
+      </c>
+      <c r="B122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>190520</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>190521</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>190522</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>190523</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>190524</v>
+      </c>
+      <c r="B127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>190525</v>
+      </c>
+      <c r="B128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>190526</v>
+      </c>
+      <c r="B129">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>190527</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>190528</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>190529</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>190530</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>190531</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>190601</v>
+      </c>
+      <c r="B135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>190602</v>
+      </c>
+      <c r="B136">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1801,19 +2874,19 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="16" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -1833,7 +2906,7 @@
         <v>190428</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="17" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="17" customFormat="1" ht="150">
       <c r="A3" s="17" t="s">
         <v>55</v>
       </c>
@@ -1844,7 +2917,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="17" customFormat="1" ht="45">
       <c r="A4" s="17" t="s">
         <v>55</v>
       </c>
@@ -1853,6 +2926,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1865,7 +2939,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="6"/>
     <col min="2" max="2" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
@@ -1875,13 +2949,13 @@
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="15" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B1" s="14"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>23</v>
@@ -1896,7 +2970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="30">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1911,7 +2985,7 @@
       </c>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="3" customFormat="1">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>32</v>
@@ -1924,7 +2998,7 @@
       </c>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="3" customFormat="1">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
         <v>33</v>
@@ -1937,7 +3011,7 @@
       </c>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="3" customFormat="1">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
         <v>34</v>
@@ -1948,7 +3022,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="45">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1968,7 +3042,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="30">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
         <v>19</v>
@@ -1984,7 +3058,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="3" customFormat="1">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
         <v>20</v>
@@ -1995,7 +3069,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="3" customFormat="1">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
         <v>35</v>
@@ -2004,7 +3078,7 @@
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="3" customFormat="1">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
         <v>36</v>
@@ -2016,7 +3090,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="3" customFormat="1">
       <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
@@ -2027,7 +3101,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="3" customFormat="1">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
         <v>38</v>
@@ -2036,58 +3110,59 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="B14" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="2"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="2"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="2"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="2"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="2"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="2"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="2"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="2"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="2"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="2"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="2"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="2"/>
       <c r="B30"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
